--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
@@ -1296,7 +1296,7 @@
     <t>Consent.provision.data.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.org/fhir/R4/documentreference.html)
+    <t xml:space="preserve">Reference(DocumentReference)
 </t>
   </si>
   <si>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
@@ -4120,10 +4120,10 @@
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -4234,10 +4234,10 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -4348,10 +4348,10 @@
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -9130,10 +9130,10 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>76</v>
@@ -10154,10 +10154,10 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>76</v>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T09:51:35+02:00</t>
+    <t>2024-03-25T16:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,7 +754,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="59284-0"/&gt;
-    &lt;display value="Consent"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -813,7 +812,7 @@
 </t>
   </si>
   <si>
-    <t>Date de recueil de l'accord de la personne orientée par l’ESMS.</t>
+    <t>date de recueil par l'ESMS de l'accord de la personne orientée</t>
   </si>
   <si>
     <t>When this  Consent was issued / created / indexed.</t>
@@ -4123,7 +4122,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T16:25:35+00:00</t>
+    <t>2024-03-26T08:08:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
+++ b/ig/ANS-006-115-#150-#67/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T08:08:49+00:00</t>
+    <t>2024-03-26T08:51:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
